--- a/DataMan/Records/static/download-template-Price.xlsx
+++ b/DataMan/Records/static/download-template-Price.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M McCown\SCS\DataMan\Records\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC78049-8CAE-434B-A14A-7072B3CED1E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04409F9-0F70-4278-8836-5611576A199F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10320" yWindow="1104" windowWidth="12180" windowHeight="10860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataMan Upload Instructions" sheetId="5" r:id="rId1"/>
@@ -2888,6 +2888,10 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A3:J3"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="B21:J21"/>
     <mergeCell ref="A14:J14"/>
@@ -2902,10 +2906,6 @@
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11330,7 +11330,10 @@
         <v>77</v>
       </c>
       <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
+      <c r="C2" s="145" t="str">
+        <f>IF(Input!C2="","",Input!C2)</f>
+        <v/>
+      </c>
       <c r="D2" s="145"/>
       <c r="E2" s="145"/>
       <c r="F2" s="145"/>
